--- a/biology/Zoologie/Chiyomatsu_Ishikawa/Chiyomatsu_Ishikawa.xlsx
+++ b/biology/Zoologie/Chiyomatsu_Ishikawa/Chiyomatsu_Ishikawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiyomatsu Ishikawa (石川千代松) est un zoologiste japonais, né le 30 janvier 1860 et mort le 17 janvier 1935.
 Cet ichtyologiste étudie à la station de zoologie de Naples à partir de 1887. Il contribue à la diffusion des idées sur l’évolution de Charles Darwin (1809-1882) au Japon.
@@ -513,7 +525,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1904 : Notes on some new or little known fishes of Japan.art P I. Proc. Dept. Nat. Hist. Tokyo Imperial Mus., v. 1 : 1-17, Pl. 1-7.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Ishikawa Chiyomatsu » (voir la liste des auteurs).</t>
         </is>
